--- a/Paper/Supplementary File 4.xlsx
+++ b/Paper/Supplementary File 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoramautz/Desktop/SIO/Research/baja_edna/baja_edna_git/Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90554B1-519F-1944-90A4-236EBAB84B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F09BE65-DDD2-6446-9BA6-AFD1CD74B08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32920" yWindow="1660" windowWidth="28040" windowHeight="16060" xr2:uid="{2BF75561-9995-6A4C-BFF9-C9502A66C082}"/>
   </bookViews>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA73D32E-4014-FA4A-94AD-39074B2BF8C6}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,53 +550,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.45454600000000001</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>0.45454549999999999</v>
+        <v>0.45454600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>0.56818179999999996</v>
+        <v>0.45454549999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>0.43181819999999999</v>
+        <v>0.56818179999999996</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>19</v>
@@ -607,314 +596,322 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>0.34090910000000002</v>
+        <v>0.43181819999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>0.20454549999999999</v>
+        <v>0.34090910000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>0.45454549999999999</v>
+        <v>0.20454549999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>0.40909089999999998</v>
+        <v>0.45454549999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0.56818179999999996</v>
+        <v>0.40909089999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>0.68181820000000004</v>
+        <v>0.56818179999999996</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>0.56818179999999996</v>
+        <v>0.68181820000000004</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>0.52272730000000001</v>
+        <v>0.56818179999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>0.38636359999999997</v>
+        <v>0.52272730000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>0.56818179999999996</v>
+        <v>0.38636359999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
-        <v>0.54545449999999995</v>
+        <v>0.56818179999999996</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>0.56818179999999996</v>
+        <v>0.54545449999999995</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>0.63636360000000003</v>
+        <v>0.56818179999999996</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>0.52272730000000001</v>
+        <v>0.63636360000000003</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
-        <v>29</v>
-      </c>
       <c r="C21" s="1">
-        <v>0.65909090000000004</v>
+        <v>0.52272730000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>0.47727269999999999</v>
+        <v>0.65909090000000004</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>0.43181819999999999</v>
+        <v>0.47727269999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>0.45454549999999999</v>
+        <v>0.43181819999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>0.38636359999999997</v>
+        <v>0.45454549999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>0.31818180000000001</v>
+        <v>0.38636359999999997</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
-        <v>0.5</v>
+        <v>0.31818180000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>0.52272730000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>0.43181819999999999</v>
+        <v>0.52272730000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>0.40909089999999998</v>
+        <v>0.43181819999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
-        <v>0.47727269999999999</v>
+        <v>0.40909089999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1">
-        <v>0.43181819999999999</v>
+        <v>0.47727269999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>0.47727269999999999</v>
+        <v>0.43181819999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.47727269999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>19</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>0.43181819999999999</v>
       </c>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K52" s="2"/>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K53" s="2"/>
@@ -933,6 +930,9 @@
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
